--- a/data/pca/factorExposure/factorExposure_2018-08-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-08-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03418911151000548</v>
+        <v>-0.02927340308340432</v>
       </c>
       <c r="C2">
-        <v>0.04486133567686293</v>
+        <v>-0.01321931371258724</v>
       </c>
       <c r="D2">
-        <v>-0.03650738350120191</v>
+        <v>-0.01247389226245137</v>
       </c>
       <c r="E2">
-        <v>0.05302077099206372</v>
+        <v>0.01324569877387005</v>
       </c>
       <c r="F2">
-        <v>0.1443142217890238</v>
+        <v>0.021344191095879</v>
       </c>
       <c r="G2">
-        <v>0.05658659949793887</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.08126812877873271</v>
+      </c>
+      <c r="H2">
+        <v>0.01535744645920919</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1166063394333604</v>
+        <v>-0.07663014532930615</v>
       </c>
       <c r="C3">
-        <v>0.008447260314363669</v>
+        <v>0.01988791117178899</v>
       </c>
       <c r="D3">
-        <v>-0.04367740976939857</v>
+        <v>-0.01681251088899867</v>
       </c>
       <c r="E3">
-        <v>0.1101456446501907</v>
+        <v>0.007644010190121371</v>
       </c>
       <c r="F3">
-        <v>0.3979821275548018</v>
+        <v>-0.01183379364623968</v>
       </c>
       <c r="G3">
-        <v>0.148507707748701</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.2729191906867108</v>
+      </c>
+      <c r="H3">
+        <v>0.03554446258254785</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05087289762228656</v>
+        <v>-0.04745374101892141</v>
       </c>
       <c r="C4">
-        <v>0.0382202371153552</v>
+        <v>0.0006228441676753771</v>
       </c>
       <c r="D4">
-        <v>0.002578089502814747</v>
+        <v>-0.0300554214097907</v>
       </c>
       <c r="E4">
-        <v>0.0689983066155211</v>
+        <v>-0.02247758516456695</v>
       </c>
       <c r="F4">
-        <v>0.07043766017131711</v>
+        <v>0.0583736531553611</v>
       </c>
       <c r="G4">
-        <v>0.04729721750377685</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04886027108679999</v>
+      </c>
+      <c r="H4">
+        <v>0.02525823113263935</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01243585838017993</v>
+        <v>-0.0301794554350438</v>
       </c>
       <c r="C6">
-        <v>-0.001079775820824537</v>
+        <v>-0.0002862597833894037</v>
       </c>
       <c r="D6">
-        <v>-0.01431785770508306</v>
+        <v>-0.03641026769946256</v>
       </c>
       <c r="E6">
-        <v>0.01979671501520368</v>
+        <v>-0.006575799833865969</v>
       </c>
       <c r="F6">
-        <v>0.01159088125568126</v>
+        <v>0.03569974961517384</v>
       </c>
       <c r="G6">
-        <v>-0.004174169878632194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01506043856413287</v>
+      </c>
+      <c r="H6">
+        <v>0.05181561648106224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02736740249848839</v>
+        <v>-0.02041606051031199</v>
       </c>
       <c r="C7">
-        <v>0.0184460607178499</v>
+        <v>-0.0008390122362796001</v>
       </c>
       <c r="D7">
-        <v>-0.02994340938499086</v>
+        <v>-0.01747220562598996</v>
       </c>
       <c r="E7">
-        <v>0.04096103829411876</v>
+        <v>-0.03684772869874285</v>
       </c>
       <c r="F7">
-        <v>0.06098510804415728</v>
+        <v>0.02217483141923382</v>
       </c>
       <c r="G7">
-        <v>0.05854463823398333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03712573194533977</v>
+      </c>
+      <c r="H7">
+        <v>0.01403184927599319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01418533719411474</v>
+        <v>-0.004275811669043579</v>
       </c>
       <c r="C8">
-        <v>0.01603894120659091</v>
+        <v>0.00231008874449197</v>
       </c>
       <c r="D8">
-        <v>0.003725477962256845</v>
+        <v>-0.007604902037450081</v>
       </c>
       <c r="E8">
-        <v>0.07457897871166297</v>
+        <v>-0.01218200179625154</v>
       </c>
       <c r="F8">
-        <v>0.08498730055057387</v>
+        <v>0.02706967841656103</v>
       </c>
       <c r="G8">
-        <v>0.06669442343545499</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.05602175521485805</v>
+      </c>
+      <c r="H8">
+        <v>0.005572163304874395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.041867759013079</v>
+        <v>-0.03814924274197808</v>
       </c>
       <c r="C9">
-        <v>0.03119565376162926</v>
+        <v>0.003859897238278219</v>
       </c>
       <c r="D9">
-        <v>0.01436603404264526</v>
+        <v>-0.02508247061860969</v>
       </c>
       <c r="E9">
-        <v>0.06906997311537202</v>
+        <v>-0.01949703900891466</v>
       </c>
       <c r="F9">
-        <v>0.06724699700948414</v>
+        <v>0.0363679100466071</v>
       </c>
       <c r="G9">
-        <v>0.04903277009339516</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.05999854324047536</v>
+      </c>
+      <c r="H9">
+        <v>0.02411654869135152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05226950172857382</v>
+        <v>-0.08978790964676034</v>
       </c>
       <c r="C10">
-        <v>0.0410365302752515</v>
+        <v>0.03978536772876012</v>
       </c>
       <c r="D10">
-        <v>0.01493790231997445</v>
+        <v>0.1471840639604695</v>
       </c>
       <c r="E10">
-        <v>-0.1078605780395746</v>
+        <v>0.02442435276013174</v>
       </c>
       <c r="F10">
-        <v>0.0784097155380034</v>
+        <v>-0.07182319304029842</v>
       </c>
       <c r="G10">
-        <v>-0.0423165779304952</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02629213183995875</v>
+      </c>
+      <c r="H10">
+        <v>0.002591347491535943</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03403447626183598</v>
+        <v>-0.02307729841411802</v>
       </c>
       <c r="C11">
-        <v>0.01352992293277015</v>
+        <v>0.01105105041907065</v>
       </c>
       <c r="D11">
-        <v>-0.01613925824470782</v>
+        <v>-0.03278931905818259</v>
       </c>
       <c r="E11">
-        <v>0.03561928253091702</v>
+        <v>0.002859541803367121</v>
       </c>
       <c r="F11">
-        <v>0.0332710853061605</v>
+        <v>0.0227420072253535</v>
       </c>
       <c r="G11">
-        <v>0.02494531587395415</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.03563265158946903</v>
+      </c>
+      <c r="H11">
+        <v>0.0262370212966322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04117202100013921</v>
+        <v>-0.03198759567451306</v>
       </c>
       <c r="C12">
-        <v>0.01488508360677042</v>
+        <v>0.01038173898145589</v>
       </c>
       <c r="D12">
-        <v>-0.002945967146205654</v>
+        <v>-0.03098396116782683</v>
       </c>
       <c r="E12">
-        <v>0.04359081447704815</v>
+        <v>-0.008220584409864973</v>
       </c>
       <c r="F12">
-        <v>0.01620277424766964</v>
+        <v>0.02584429067078348</v>
       </c>
       <c r="G12">
-        <v>0.0187878293253197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.01327103689480557</v>
+      </c>
+      <c r="H12">
+        <v>0.0134734807962249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0186011695192975</v>
+        <v>-0.02550533250441222</v>
       </c>
       <c r="C13">
-        <v>0.02314222539518789</v>
+        <v>-0.01141889016227108</v>
       </c>
       <c r="D13">
-        <v>-0.03448363887760831</v>
+        <v>-0.004034109538886768</v>
       </c>
       <c r="E13">
-        <v>0.02262736589580108</v>
+        <v>0.0161228817225143</v>
       </c>
       <c r="F13">
-        <v>0.08954394711007628</v>
+        <v>0.0209555431686158</v>
       </c>
       <c r="G13">
-        <v>0.0348135698603956</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.06673510521500249</v>
+      </c>
+      <c r="H13">
+        <v>0.02323646157085223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01074776439526113</v>
+        <v>-0.0151063642277266</v>
       </c>
       <c r="C14">
-        <v>0.01826494190317436</v>
+        <v>0.0009017395523230172</v>
       </c>
       <c r="D14">
-        <v>-0.003675145204598885</v>
+        <v>-0.002730894298373511</v>
       </c>
       <c r="E14">
-        <v>0.04177981962675908</v>
+        <v>-0.00912740054140062</v>
       </c>
       <c r="F14">
-        <v>0.06125875205701457</v>
+        <v>0.02411739832565572</v>
       </c>
       <c r="G14">
-        <v>0.06278460205791281</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04428425395544767</v>
+      </c>
+      <c r="H14">
+        <v>-0.01963237047938064</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02556014794736491</v>
+        <v>-0.02385989742561057</v>
       </c>
       <c r="C16">
-        <v>0.01459863428717758</v>
+        <v>0.01150404826716236</v>
       </c>
       <c r="D16">
-        <v>-0.01342793431273453</v>
+        <v>-0.02762788795763852</v>
       </c>
       <c r="E16">
-        <v>0.03557745664383013</v>
+        <v>-0.00185225642876693</v>
       </c>
       <c r="F16">
-        <v>0.03732156637100564</v>
+        <v>0.02426644376942013</v>
       </c>
       <c r="G16">
-        <v>0.02716302501034352</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.03134380334593036</v>
+      </c>
+      <c r="H16">
+        <v>0.02038067554944748</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03767196293276789</v>
+        <v>-0.0332957637543692</v>
       </c>
       <c r="C19">
-        <v>0.01428561364052724</v>
+        <v>0.003646690850518174</v>
       </c>
       <c r="D19">
-        <v>-0.0197817948923812</v>
+        <v>-0.01104048239169765</v>
       </c>
       <c r="E19">
-        <v>0.06026611429706593</v>
+        <v>0.0007179090164931395</v>
       </c>
       <c r="F19">
-        <v>0.09372782612441875</v>
+        <v>0.03209453556565156</v>
       </c>
       <c r="G19">
-        <v>0.04222552970636172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.07127894099184404</v>
+      </c>
+      <c r="H19">
+        <v>0.03651527977746916</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.003309429191459527</v>
+        <v>-0.007115723563769862</v>
       </c>
       <c r="C20">
-        <v>0.02432534867264852</v>
+        <v>-0.006735346020690201</v>
       </c>
       <c r="D20">
-        <v>-0.008584752051815693</v>
+        <v>-0.002666244732957364</v>
       </c>
       <c r="E20">
-        <v>0.03335543262794827</v>
+        <v>-0.001406563572025578</v>
       </c>
       <c r="F20">
-        <v>0.06302196767483956</v>
+        <v>0.01849288667585154</v>
       </c>
       <c r="G20">
-        <v>0.06426099397988511</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05061882878461526</v>
+      </c>
+      <c r="H20">
+        <v>-0.01085303133770458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001996301359586736</v>
+        <v>-0.02291436240985048</v>
       </c>
       <c r="C21">
-        <v>-0.0009218536949767621</v>
+        <v>-0.00348476758111555</v>
       </c>
       <c r="D21">
-        <v>-0.004743677504382294</v>
+        <v>-0.001861386490141024</v>
       </c>
       <c r="E21">
-        <v>0.03640624145160193</v>
+        <v>-0.01240995194869287</v>
       </c>
       <c r="F21">
-        <v>0.07090787630672502</v>
+        <v>0.008604817979175505</v>
       </c>
       <c r="G21">
-        <v>0.03113813749492592</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.05629693763259051</v>
+      </c>
+      <c r="H21">
+        <v>0.006707528631720989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02983555618687076</v>
+        <v>-0.02271811319076408</v>
       </c>
       <c r="C24">
-        <v>0.01539242987982539</v>
+        <v>0.005979214954053028</v>
       </c>
       <c r="D24">
-        <v>-0.01015038299765875</v>
+        <v>-0.02860972108621637</v>
       </c>
       <c r="E24">
-        <v>0.02666958357601412</v>
+        <v>-0.001888932270856435</v>
       </c>
       <c r="F24">
-        <v>0.03496395684627179</v>
+        <v>0.01980205044737902</v>
       </c>
       <c r="G24">
-        <v>0.01809893371324887</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02967782305794485</v>
+      </c>
+      <c r="H24">
+        <v>0.02546156045967037</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03223937211743935</v>
+        <v>-0.03380634957067361</v>
       </c>
       <c r="C25">
-        <v>0.01085287742263227</v>
+        <v>0.005604531467548191</v>
       </c>
       <c r="D25">
-        <v>-0.007814193925235859</v>
+        <v>-0.02443055562559721</v>
       </c>
       <c r="E25">
-        <v>0.03698403427932689</v>
+        <v>-0.002257306283288633</v>
       </c>
       <c r="F25">
-        <v>0.03238270019439989</v>
+        <v>0.0240844707458163</v>
       </c>
       <c r="G25">
-        <v>0.007651816843760031</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03345510157823894</v>
+      </c>
+      <c r="H25">
+        <v>0.02842294137915851</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01903219031092989</v>
+        <v>-0.02031359363114128</v>
       </c>
       <c r="C26">
-        <v>-0.002625265603210503</v>
+        <v>-0.01578674686472163</v>
       </c>
       <c r="D26">
-        <v>-0.03614507140051872</v>
+        <v>-0.004572322412579773</v>
       </c>
       <c r="E26">
-        <v>0.04347403999598835</v>
+        <v>0.006507381289390663</v>
       </c>
       <c r="F26">
-        <v>0.05470553800554765</v>
+        <v>0.004882301370401958</v>
       </c>
       <c r="G26">
-        <v>0.03259135045612385</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03775734142685788</v>
+      </c>
+      <c r="H26">
+        <v>-0.003424393750330118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.07355264547384822</v>
+        <v>-0.03133027188543135</v>
       </c>
       <c r="C27">
-        <v>0.05244681229424971</v>
+        <v>0.01567191109960745</v>
       </c>
       <c r="D27">
-        <v>-0.0001185419220826516</v>
+        <v>-0.01008343433635065</v>
       </c>
       <c r="E27">
-        <v>0.05613773859987033</v>
+        <v>-0.004897431896861935</v>
       </c>
       <c r="F27">
-        <v>0.05439268568499987</v>
+        <v>0.02689253410065125</v>
       </c>
       <c r="G27">
-        <v>0.05681021888557458</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.02797640712119318</v>
+      </c>
+      <c r="H27">
+        <v>-0.002381020275886235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.07675854300674465</v>
+        <v>-0.1385023860452782</v>
       </c>
       <c r="C28">
-        <v>0.05713314909731718</v>
+        <v>0.04735809504034445</v>
       </c>
       <c r="D28">
-        <v>0.03642677546593219</v>
+        <v>0.2192476726671936</v>
       </c>
       <c r="E28">
-        <v>-0.1745665682192363</v>
+        <v>0.03158204441144356</v>
       </c>
       <c r="F28">
-        <v>0.101498363763956</v>
+        <v>-0.0967981780380624</v>
       </c>
       <c r="G28">
-        <v>-0.02365989622672941</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01249530011372906</v>
+      </c>
+      <c r="H28">
+        <v>-0.01167475285723519</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01943876622843613</v>
+        <v>-0.02037442264207659</v>
       </c>
       <c r="C29">
-        <v>0.02155862935506315</v>
+        <v>0.003787338075435967</v>
       </c>
       <c r="D29">
-        <v>0.00459362502412176</v>
+        <v>-0.003990718736858028</v>
       </c>
       <c r="E29">
-        <v>0.05909440621223187</v>
+        <v>-0.01078895535759206</v>
       </c>
       <c r="F29">
-        <v>0.04375757909700532</v>
+        <v>0.02640808395776653</v>
       </c>
       <c r="G29">
-        <v>0.06149469099792945</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03685518766316487</v>
+      </c>
+      <c r="H29">
+        <v>-0.02066580712202713</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08579434976931945</v>
+        <v>-0.05493602289609063</v>
       </c>
       <c r="C30">
-        <v>0.05906329972380113</v>
+        <v>0.002092982469322777</v>
       </c>
       <c r="D30">
-        <v>-0.03690688466963984</v>
+        <v>-0.05768083056267374</v>
       </c>
       <c r="E30">
-        <v>0.08408596679269165</v>
+        <v>0.03305944196228045</v>
       </c>
       <c r="F30">
-        <v>0.05093482513430728</v>
+        <v>0.0749124643156449</v>
       </c>
       <c r="G30">
-        <v>0.04824468077705203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.0647384736964859</v>
+      </c>
+      <c r="H30">
+        <v>0.03491644113930993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06134976022369585</v>
+        <v>-0.05441296400658583</v>
       </c>
       <c r="C31">
-        <v>0.01855394002327501</v>
+        <v>0.02052559761855735</v>
       </c>
       <c r="D31">
-        <v>-0.04960033776042608</v>
+        <v>-0.02436440886970244</v>
       </c>
       <c r="E31">
-        <v>0.03654772194627569</v>
+        <v>0.009519831125552542</v>
       </c>
       <c r="F31">
-        <v>0.03528446059451042</v>
+        <v>0.02183630916337477</v>
       </c>
       <c r="G31">
-        <v>0.07896944202596388</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02511473013805646</v>
+      </c>
+      <c r="H31">
+        <v>-0.01683843618179853</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0218195935302155</v>
+        <v>-0.01182952777572375</v>
       </c>
       <c r="C32">
-        <v>0.031311401761079</v>
+        <v>0.01683855243385348</v>
       </c>
       <c r="D32">
-        <v>-0.0007950292825629174</v>
+        <v>0.009210015551480611</v>
       </c>
       <c r="E32">
-        <v>0.06615337224195199</v>
+        <v>-0.01769456097040066</v>
       </c>
       <c r="F32">
-        <v>0.06323588117183394</v>
+        <v>0.04561096508590583</v>
       </c>
       <c r="G32">
-        <v>0.04981687712758381</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.0559021506633951</v>
+      </c>
+      <c r="H32">
+        <v>0.04065627679779675</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05329941870888389</v>
+        <v>-0.03895234381715904</v>
       </c>
       <c r="C33">
-        <v>0.004797168062398863</v>
+        <v>0.004489716550045401</v>
       </c>
       <c r="D33">
-        <v>-0.04627959677454398</v>
+        <v>-0.03151485695079558</v>
       </c>
       <c r="E33">
-        <v>0.07569176968617036</v>
+        <v>0.0226381688152007</v>
       </c>
       <c r="F33">
-        <v>0.08819958703593278</v>
+        <v>0.01530461079472165</v>
       </c>
       <c r="G33">
-        <v>0.05199935957954427</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.06353791173257481</v>
+      </c>
+      <c r="H33">
+        <v>0.0145549380648484</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03123086643871685</v>
+        <v>-0.02591454230226668</v>
       </c>
       <c r="C34">
-        <v>0.01627989037775657</v>
+        <v>0.01956212478134794</v>
       </c>
       <c r="D34">
-        <v>-0.01301149262570295</v>
+        <v>-0.02888496808840712</v>
       </c>
       <c r="E34">
-        <v>0.0444723289876698</v>
+        <v>-0.00677100028682959</v>
       </c>
       <c r="F34">
-        <v>0.03652380786515892</v>
+        <v>0.02441982197219823</v>
       </c>
       <c r="G34">
-        <v>0.01652726005780979</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02777542684423697</v>
+      </c>
+      <c r="H34">
+        <v>0.02387132852537335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01332944745665027</v>
+        <v>-0.01913710843393671</v>
       </c>
       <c r="C36">
-        <v>0.01083760025627372</v>
+        <v>-0.002375112073470412</v>
       </c>
       <c r="D36">
-        <v>-0.001912160044277073</v>
+        <v>0.002576641883528074</v>
       </c>
       <c r="E36">
-        <v>0.02927870083627924</v>
+        <v>-0.002654450433103276</v>
       </c>
       <c r="F36">
-        <v>0.02278889119232489</v>
+        <v>0.007819441012303118</v>
       </c>
       <c r="G36">
-        <v>0.03743320828187339</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01989201970044726</v>
+      </c>
+      <c r="H36">
+        <v>-0.005168517258678108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.001415643823989239</v>
+        <v>-0.01773594840211903</v>
       </c>
       <c r="C38">
-        <v>-0.005489309018027766</v>
+        <v>0.01752442557444494</v>
       </c>
       <c r="D38">
-        <v>0.01468447697123345</v>
+        <v>0.002268493336592287</v>
       </c>
       <c r="E38">
-        <v>-0.0001217071632654962</v>
+        <v>-0.004077137640146223</v>
       </c>
       <c r="F38">
-        <v>0.009154497161356346</v>
+        <v>0.009990382164255143</v>
       </c>
       <c r="G38">
-        <v>-0.01731306339133323</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02940004346821034</v>
+      </c>
+      <c r="H38">
+        <v>0.02220331216746696</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0388960341177479</v>
+        <v>-0.02475062704415364</v>
       </c>
       <c r="C39">
-        <v>0.02166563144430073</v>
+        <v>0.004199093550556199</v>
       </c>
       <c r="D39">
-        <v>-0.03113897218979928</v>
+        <v>-0.06737885589120177</v>
       </c>
       <c r="E39">
-        <v>0.04645273916617891</v>
+        <v>-3.591165702280989e-06</v>
       </c>
       <c r="F39">
-        <v>0.04389292607624131</v>
+        <v>0.04201204051576377</v>
       </c>
       <c r="G39">
-        <v>0.02462320981846396</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.0557473391347907</v>
+      </c>
+      <c r="H39">
+        <v>0.0491773384371507</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02814439956749087</v>
+        <v>-0.02738960646637184</v>
       </c>
       <c r="C40">
-        <v>0.04468389629383059</v>
+        <v>0.002815223273681302</v>
       </c>
       <c r="D40">
-        <v>-0.05523265266839605</v>
+        <v>-0.02030610314911998</v>
       </c>
       <c r="E40">
-        <v>0.03735710408473558</v>
+        <v>0.01882932602184448</v>
       </c>
       <c r="F40">
-        <v>0.08593877861774864</v>
+        <v>0.03804914592460495</v>
       </c>
       <c r="G40">
-        <v>0.05256557700248439</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.04511272731669415</v>
+      </c>
+      <c r="H40">
+        <v>0.04405098032414949</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.002115062724630991</v>
+        <v>-0.00834571289000075</v>
       </c>
       <c r="C41">
-        <v>-0.007729096481787487</v>
+        <v>-0.0004509317717340563</v>
       </c>
       <c r="D41">
-        <v>-0.006789335417377193</v>
+        <v>0.009355131747234404</v>
       </c>
       <c r="E41">
-        <v>0.02043198359268327</v>
+        <v>0.002194650857447482</v>
       </c>
       <c r="F41">
-        <v>0.01167488494456271</v>
+        <v>-0.003594308008409099</v>
       </c>
       <c r="G41">
-        <v>0.05791009421709787</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.008753299501687782</v>
+      </c>
+      <c r="H41">
+        <v>-0.01817173378188561</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3756115023643642</v>
+        <v>-0.2094940959852409</v>
       </c>
       <c r="C42">
-        <v>-0.8860006222429343</v>
+        <v>-0.08302409638690493</v>
       </c>
       <c r="D42">
-        <v>-0.1845099988134726</v>
+        <v>-0.5468799077960359</v>
       </c>
       <c r="E42">
-        <v>-0.09586723506204944</v>
+        <v>0.1181583651223435</v>
       </c>
       <c r="F42">
-        <v>-0.04436239244317846</v>
+        <v>-0.7820114211533191</v>
       </c>
       <c r="G42">
-        <v>0.02093010664338591</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.08345781886690899</v>
+      </c>
+      <c r="H42">
+        <v>0.01673355744266289</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.007789773676238381</v>
+        <v>-0.007425451444966026</v>
       </c>
       <c r="C43">
-        <v>-0.003817052851820619</v>
+        <v>-0.002238317308622276</v>
       </c>
       <c r="D43">
-        <v>-0.009639846213277485</v>
+        <v>0.01263436362663048</v>
       </c>
       <c r="E43">
-        <v>0.02353256150701036</v>
+        <v>0.007169716564661229</v>
       </c>
       <c r="F43">
-        <v>0.03147225938990402</v>
+        <v>-0.008435616226917391</v>
       </c>
       <c r="G43">
-        <v>0.0512570436393105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01757696990133185</v>
+      </c>
+      <c r="H43">
+        <v>-0.01052833580581008</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.0182455153164045</v>
+        <v>-0.01286884442640277</v>
       </c>
       <c r="C44">
-        <v>0.0002128050522545661</v>
+        <v>0.000798629372567481</v>
       </c>
       <c r="D44">
-        <v>-0.02458427356744395</v>
+        <v>-0.02298294040554616</v>
       </c>
       <c r="E44">
-        <v>0.07236450430436731</v>
+        <v>-0.00268943117189906</v>
       </c>
       <c r="F44">
-        <v>0.1735792873255306</v>
+        <v>0.003583551794665922</v>
       </c>
       <c r="G44">
-        <v>0.1597234743342207</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.08796574916458666</v>
+      </c>
+      <c r="H44">
+        <v>0.01166484866408116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0184851605157904</v>
+        <v>-0.02040559517643178</v>
       </c>
       <c r="C46">
-        <v>0.02047912549624584</v>
+        <v>-0.0002315248350063424</v>
       </c>
       <c r="D46">
-        <v>-0.02049377100485676</v>
+        <v>-0.007695728025954756</v>
       </c>
       <c r="E46">
-        <v>0.06846922497237923</v>
+        <v>0.0009201055760346935</v>
       </c>
       <c r="F46">
-        <v>0.06093910627712435</v>
+        <v>0.03156720711540509</v>
       </c>
       <c r="G46">
-        <v>0.05760299457549951</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05750808023639179</v>
+      </c>
+      <c r="H46">
+        <v>-0.01521488590010191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09478246804622004</v>
+        <v>-0.07383274588256705</v>
       </c>
       <c r="C47">
-        <v>0.03625695218018222</v>
+        <v>0.03804685332413202</v>
       </c>
       <c r="D47">
-        <v>-0.02510176151460107</v>
+        <v>-0.03020881398182892</v>
       </c>
       <c r="E47">
-        <v>0.03813968353370387</v>
+        <v>0.004719183336120866</v>
       </c>
       <c r="F47">
-        <v>0.001319935877919407</v>
+        <v>0.032150035358046</v>
       </c>
       <c r="G47">
-        <v>0.09023792971939149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.008529792135145556</v>
+      </c>
+      <c r="H47">
+        <v>-0.03187122707765562</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01341366436117164</v>
+        <v>-0.01967059874220985</v>
       </c>
       <c r="C48">
-        <v>0.005201723735474045</v>
+        <v>0.007994426561082176</v>
       </c>
       <c r="D48">
-        <v>-0.01521672580247852</v>
+        <v>-0.004224971565867411</v>
       </c>
       <c r="E48">
-        <v>0.0400494896640875</v>
+        <v>0.001971830294865624</v>
       </c>
       <c r="F48">
-        <v>0.03907489934004137</v>
+        <v>0.01106168430721481</v>
       </c>
       <c r="G48">
-        <v>0.02127310604435091</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02757986747269454</v>
+      </c>
+      <c r="H48">
+        <v>-0.001780708315749044</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08851410583842784</v>
+        <v>-0.06672581546969117</v>
       </c>
       <c r="C50">
-        <v>0.02015347967177878</v>
+        <v>0.03185085604227288</v>
       </c>
       <c r="D50">
-        <v>-0.03733178956266772</v>
+        <v>-0.04087491249216483</v>
       </c>
       <c r="E50">
-        <v>0.0566541335755494</v>
+        <v>-0.01014481562514457</v>
       </c>
       <c r="F50">
-        <v>0.0253351874564784</v>
+        <v>0.02831613821743826</v>
       </c>
       <c r="G50">
-        <v>0.0423171732914818</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.02525166267655176</v>
+      </c>
+      <c r="H50">
+        <v>-0.02800774947650008</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02500626935442217</v>
+        <v>-0.02178941465996484</v>
       </c>
       <c r="C51">
-        <v>0.01437374118924469</v>
+        <v>0.00246715314517839</v>
       </c>
       <c r="D51">
-        <v>-0.03144922788237624</v>
+        <v>0.008560009133288931</v>
       </c>
       <c r="E51">
-        <v>0.03209538720401972</v>
+        <v>0.007519068103298257</v>
       </c>
       <c r="F51">
-        <v>0.1279156783914354</v>
+        <v>-0.001817869404880415</v>
       </c>
       <c r="G51">
-        <v>0.05186306465789436</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.07426855429259169</v>
+      </c>
+      <c r="H51">
+        <v>0.02215139632991621</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1029868832402231</v>
+        <v>-0.09330009017110359</v>
       </c>
       <c r="C53">
-        <v>0.04989257177587562</v>
+        <v>0.04740385268371802</v>
       </c>
       <c r="D53">
-        <v>-0.04252290161096974</v>
+        <v>-0.05926840679974928</v>
       </c>
       <c r="E53">
-        <v>0.04457559755303795</v>
+        <v>0.001150812420875006</v>
       </c>
       <c r="F53">
-        <v>-0.05513461648325811</v>
+        <v>0.06481197971954658</v>
       </c>
       <c r="G53">
-        <v>0.03539735792319811</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.05613877896523808</v>
+      </c>
+      <c r="H53">
+        <v>-0.03553222867932868</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01566137770216476</v>
+        <v>-0.02305438275269875</v>
       </c>
       <c r="C54">
-        <v>0.03096691223669917</v>
+        <v>0.01472360002341197</v>
       </c>
       <c r="D54">
-        <v>-0.001004595243641584</v>
+        <v>0.02180604406658408</v>
       </c>
       <c r="E54">
-        <v>0.03640197969261392</v>
+        <v>-0.003202707035435343</v>
       </c>
       <c r="F54">
-        <v>0.06651722425770011</v>
+        <v>0.01145974107028629</v>
       </c>
       <c r="G54">
-        <v>0.074442491514771</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03799889666841706</v>
+      </c>
+      <c r="H54">
+        <v>-0.01647073260685578</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1011672480205643</v>
+        <v>-0.08045649940589693</v>
       </c>
       <c r="C55">
-        <v>0.03506117529140549</v>
+        <v>0.04184498786942934</v>
       </c>
       <c r="D55">
-        <v>-0.00307047799441832</v>
+        <v>-0.05891948035208037</v>
       </c>
       <c r="E55">
-        <v>0.05154098077548232</v>
+        <v>-0.01040724807021854</v>
       </c>
       <c r="F55">
-        <v>-0.04876838470193261</v>
+        <v>0.05433516196568401</v>
       </c>
       <c r="G55">
-        <v>0.07346090944007411</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03581716813300578</v>
+      </c>
+      <c r="H55">
+        <v>-0.04660599337363361</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.145488403160994</v>
+        <v>-0.1258263932128117</v>
       </c>
       <c r="C56">
-        <v>0.08575446878657025</v>
+        <v>0.07047249983521583</v>
       </c>
       <c r="D56">
-        <v>-0.02709077453998099</v>
+        <v>-0.07826969912147165</v>
       </c>
       <c r="E56">
-        <v>0.05033752416156359</v>
+        <v>-0.003594803356092394</v>
       </c>
       <c r="F56">
-        <v>-0.1601861801929924</v>
+        <v>0.09282091821060741</v>
       </c>
       <c r="G56">
-        <v>0.005299726037486495</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1027107633409317</v>
+      </c>
+      <c r="H56">
+        <v>-0.02835067081132236</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04403391050506709</v>
+        <v>-0.04516346398605923</v>
       </c>
       <c r="C57">
-        <v>0.01105450963986099</v>
+        <v>-0.004018052987173755</v>
       </c>
       <c r="D57">
-        <v>-0.03548270923147652</v>
+        <v>-0.01976929074631087</v>
       </c>
       <c r="E57">
-        <v>0.01215312551294989</v>
+        <v>0.01079372483794629</v>
       </c>
       <c r="F57">
-        <v>0.07399451796247078</v>
+        <v>0.02336723272223326</v>
       </c>
       <c r="G57">
-        <v>0.0385633746862616</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.06357708288873025</v>
+      </c>
+      <c r="H57">
+        <v>0.009035842172979938</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1886639352391139</v>
+        <v>-0.1394782270259649</v>
       </c>
       <c r="C58">
-        <v>0.03665217426066534</v>
+        <v>0.05450461752865449</v>
       </c>
       <c r="D58">
-        <v>-0.1139374406967697</v>
+        <v>-0.1348103106042179</v>
       </c>
       <c r="E58">
-        <v>0.2753020092964074</v>
+        <v>0.1068881305409031</v>
       </c>
       <c r="F58">
-        <v>0.2107324621526033</v>
+        <v>0.04737134880801985</v>
       </c>
       <c r="G58">
-        <v>-0.04755053900672285</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.6731101532738784</v>
+      </c>
+      <c r="H58">
+        <v>-0.5528174735702515</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.07259766986695709</v>
+        <v>-0.1397597757092879</v>
       </c>
       <c r="C59">
-        <v>0.07817031628215569</v>
+        <v>0.05406251468375941</v>
       </c>
       <c r="D59">
-        <v>0.02401646818285972</v>
+        <v>0.2166398506084518</v>
       </c>
       <c r="E59">
-        <v>-0.1404039007370513</v>
+        <v>0.04858105540396773</v>
       </c>
       <c r="F59">
-        <v>0.09643801820249423</v>
+        <v>-0.07810078356585386</v>
       </c>
       <c r="G59">
-        <v>-0.03354313485135836</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.02183547680192728</v>
+      </c>
+      <c r="H59">
+        <v>0.01978102760546124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1684503046604179</v>
+        <v>-0.1685597528356996</v>
       </c>
       <c r="C60">
-        <v>0.06337055825329278</v>
+        <v>0.05562564009931169</v>
       </c>
       <c r="D60">
-        <v>-0.07308594623741115</v>
+        <v>-0.01411684949895171</v>
       </c>
       <c r="E60">
-        <v>0.03762897325967247</v>
+        <v>0.05775588889142069</v>
       </c>
       <c r="F60">
-        <v>0.1333349244248944</v>
+        <v>0.06053744723888396</v>
       </c>
       <c r="G60">
-        <v>-0.3262081729398026</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.139138606796579</v>
+      </c>
+      <c r="H60">
+        <v>0.3757337351171295</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02011352521415613</v>
+        <v>-0.02307926643247717</v>
       </c>
       <c r="C61">
-        <v>0.007490540867281978</v>
+        <v>0.008907048691110047</v>
       </c>
       <c r="D61">
-        <v>-0.00635524709524059</v>
+        <v>-0.03664328747084186</v>
       </c>
       <c r="E61">
-        <v>0.02310062275343081</v>
+        <v>-0.004119540334231967</v>
       </c>
       <c r="F61">
-        <v>0.02778563512860633</v>
+        <v>0.0287518424381408</v>
       </c>
       <c r="G61">
-        <v>0.02669215448350046</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.03156501666285773</v>
+      </c>
+      <c r="H61">
+        <v>0.03678818395218746</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01657868554458758</v>
+        <v>-0.01348779044326052</v>
       </c>
       <c r="C63">
-        <v>0.009960889513228202</v>
+        <v>-0.0004325762981205783</v>
       </c>
       <c r="D63">
-        <v>-0.01356975056873045</v>
+        <v>-0.007257232092859148</v>
       </c>
       <c r="E63">
-        <v>0.04267661571540059</v>
+        <v>-0.003051827159916488</v>
       </c>
       <c r="F63">
-        <v>0.005808959472740239</v>
+        <v>0.01882941877200111</v>
       </c>
       <c r="G63">
-        <v>0.04447249371281591</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01436762535210575</v>
+      </c>
+      <c r="H63">
+        <v>-0.01291988371860417</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03711161577783507</v>
+        <v>-0.0412998155647464</v>
       </c>
       <c r="C64">
-        <v>0.02414482413777192</v>
+        <v>0.01503447550235833</v>
       </c>
       <c r="D64">
-        <v>0.01876519172929608</v>
+        <v>-0.03149262849733486</v>
       </c>
       <c r="E64">
-        <v>0.04075821888272303</v>
+        <v>-0.01183579750920102</v>
       </c>
       <c r="F64">
-        <v>0.02026943411585772</v>
+        <v>0.02500576952430487</v>
       </c>
       <c r="G64">
-        <v>0.06871306497189299</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.02019418984242355</v>
+      </c>
+      <c r="H64">
+        <v>0.02494710334990491</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.0129446463935998</v>
+        <v>-0.03536376094777062</v>
       </c>
       <c r="C65">
-        <v>-0.002368308638988727</v>
+        <v>5.027526687843301e-05</v>
       </c>
       <c r="D65">
-        <v>-0.01295969369995872</v>
+        <v>-0.04149367159093177</v>
       </c>
       <c r="E65">
-        <v>0.01715923170574352</v>
+        <v>-0.007230245200533438</v>
       </c>
       <c r="F65">
-        <v>0.008187551120021772</v>
+        <v>0.03638755425839552</v>
       </c>
       <c r="G65">
-        <v>-0.007982369218350825</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.003487499627490825</v>
+      </c>
+      <c r="H65">
+        <v>0.05932794203798572</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03748714129388652</v>
+        <v>-0.03165945345557759</v>
       </c>
       <c r="C66">
-        <v>0.02591596040886618</v>
+        <v>0.01005588023068051</v>
       </c>
       <c r="D66">
-        <v>-0.02399828285780545</v>
+        <v>-0.07524852859817129</v>
       </c>
       <c r="E66">
-        <v>0.04497581264976015</v>
+        <v>0.004673466410625622</v>
       </c>
       <c r="F66">
-        <v>0.0386583100594935</v>
+        <v>0.06079985247223995</v>
       </c>
       <c r="G66">
-        <v>0.01253982063366997</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.04759470588865542</v>
+      </c>
+      <c r="H66">
+        <v>0.05884024912753121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02179653418509412</v>
+        <v>-0.03815409353786511</v>
       </c>
       <c r="C67">
-        <v>0.0009201205311712765</v>
+        <v>0.02306808327397414</v>
       </c>
       <c r="D67">
-        <v>0.01566118653624465</v>
+        <v>0.007899786901899023</v>
       </c>
       <c r="E67">
-        <v>-0.02076231078483039</v>
+        <v>-0.000525799283473883</v>
       </c>
       <c r="F67">
-        <v>0.01883880064468794</v>
+        <v>0.01185640106450246</v>
       </c>
       <c r="G67">
-        <v>-0.01769180177057112</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01805545471423809</v>
+      </c>
+      <c r="H67">
+        <v>0.0335193050143999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08324086702130608</v>
+        <v>-0.1441871944953903</v>
       </c>
       <c r="C68">
-        <v>0.05799606812113303</v>
+        <v>0.03345948455611369</v>
       </c>
       <c r="D68">
-        <v>0.03916556151927743</v>
+        <v>0.2018017496868089</v>
       </c>
       <c r="E68">
-        <v>-0.1677805779077842</v>
+        <v>0.04375338368151315</v>
       </c>
       <c r="F68">
-        <v>0.07341981441982999</v>
+        <v>-0.09881436575097224</v>
       </c>
       <c r="G68">
-        <v>-0.07604986063673122</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.019504400229716</v>
+      </c>
+      <c r="H68">
+        <v>-0.04240994802264884</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07162450658755165</v>
+        <v>-0.05646736776100694</v>
       </c>
       <c r="C69">
-        <v>0.0318580594104142</v>
+        <v>0.0336990991437986</v>
       </c>
       <c r="D69">
-        <v>-0.02564846992438791</v>
+        <v>-0.0291426436772498</v>
       </c>
       <c r="E69">
-        <v>0.005564749937396961</v>
+        <v>0.004108351475760112</v>
       </c>
       <c r="F69">
-        <v>0.01566315699008515</v>
+        <v>0.02957560269896732</v>
       </c>
       <c r="G69">
-        <v>0.08014558214973741</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.002271606797068578</v>
+      </c>
+      <c r="H69">
+        <v>-0.01034861356530179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1020441318802077</v>
+        <v>-0.1367069452826201</v>
       </c>
       <c r="C71">
-        <v>0.05895368012867793</v>
+        <v>0.04053620125863354</v>
       </c>
       <c r="D71">
-        <v>0.01786000798739968</v>
+        <v>0.1872075936762122</v>
       </c>
       <c r="E71">
-        <v>-0.2078817700602791</v>
+        <v>0.04295268965754082</v>
       </c>
       <c r="F71">
-        <v>0.09457857106177534</v>
+        <v>-0.1064157182134704</v>
       </c>
       <c r="G71">
-        <v>-0.0480536469370015</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.0176694654856467</v>
+      </c>
+      <c r="H71">
+        <v>-0.02576103648299959</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1064318938855203</v>
+        <v>-0.08510869512786218</v>
       </c>
       <c r="C72">
-        <v>0.09498500336637562</v>
+        <v>0.05115033949661044</v>
       </c>
       <c r="D72">
-        <v>-0.02052425448100975</v>
+        <v>-0.06242709116563393</v>
       </c>
       <c r="E72">
-        <v>0.08141412835209304</v>
+        <v>0.006153804058328408</v>
       </c>
       <c r="F72">
-        <v>0.08937420393626881</v>
+        <v>0.1067367941384412</v>
       </c>
       <c r="G72">
-        <v>-0.1094993232584184</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.1003512965103657</v>
+      </c>
+      <c r="H72">
+        <v>0.1479879450459979</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2476818399782859</v>
+        <v>-0.2350551208308797</v>
       </c>
       <c r="C73">
-        <v>0.07605611133510139</v>
+        <v>0.0725635907971923</v>
       </c>
       <c r="D73">
-        <v>-0.06592341671406429</v>
+        <v>-0.05552087819455811</v>
       </c>
       <c r="E73">
-        <v>0.005600521926119074</v>
+        <v>0.08207870615077478</v>
       </c>
       <c r="F73">
-        <v>0.2123634586190732</v>
+        <v>0.070262243721587</v>
       </c>
       <c r="G73">
-        <v>-0.4651895346619676</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1902372820434272</v>
+      </c>
+      <c r="H73">
+        <v>0.5093371913252367</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1252289261869075</v>
+        <v>-0.1142612059113367</v>
       </c>
       <c r="C74">
-        <v>0.04985753096834468</v>
+        <v>0.06349750978360781</v>
       </c>
       <c r="D74">
-        <v>-0.03581452740490928</v>
+        <v>-0.07720584713158236</v>
       </c>
       <c r="E74">
-        <v>0.02071877355335598</v>
+        <v>0.005693236489129359</v>
       </c>
       <c r="F74">
-        <v>-0.0945739142807292</v>
+        <v>0.07769870522340905</v>
       </c>
       <c r="G74">
-        <v>-0.02179313058238524</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.07496185083347412</v>
+      </c>
+      <c r="H74">
+        <v>-0.008359092816958739</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2144345679414637</v>
+        <v>-0.2216138245167264</v>
       </c>
       <c r="C75">
-        <v>0.1265176848349028</v>
+        <v>0.1251735222343811</v>
       </c>
       <c r="D75">
-        <v>-0.06729224063986874</v>
+        <v>-0.1209668523092872</v>
       </c>
       <c r="E75">
-        <v>0.07165858369799083</v>
+        <v>0.02060149910229806</v>
       </c>
       <c r="F75">
-        <v>-0.1753827056704437</v>
+        <v>0.1538286010488049</v>
       </c>
       <c r="G75">
-        <v>0.04819983821500779</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1605873435764402</v>
+      </c>
+      <c r="H75">
+        <v>-0.09111182189157119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2690354589145187</v>
+        <v>-0.2053369570773192</v>
       </c>
       <c r="C76">
-        <v>0.1334807098750602</v>
+        <v>0.1199691376097259</v>
       </c>
       <c r="D76">
-        <v>-0.01104990951301606</v>
+        <v>-0.1083390320713279</v>
       </c>
       <c r="E76">
-        <v>0.04313642688449974</v>
+        <v>-0.01871939896386962</v>
       </c>
       <c r="F76">
-        <v>-0.2001427499661337</v>
+        <v>0.1469938304140965</v>
       </c>
       <c r="G76">
-        <v>0.05867920911555308</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1729786021736547</v>
+      </c>
+      <c r="H76">
+        <v>-0.09171555124089287</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1371545159849008</v>
+        <v>-0.07292035974111898</v>
       </c>
       <c r="C77">
-        <v>-0.0183769581232085</v>
+        <v>0.01614179820603892</v>
       </c>
       <c r="D77">
-        <v>-0.06603980614971346</v>
+        <v>-0.07221893771076211</v>
       </c>
       <c r="E77">
-        <v>0.1215217966492843</v>
+        <v>0.01044949685661493</v>
       </c>
       <c r="F77">
-        <v>0.225014449379334</v>
+        <v>0.001933875313064041</v>
       </c>
       <c r="G77">
-        <v>0.1207620708456106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1310862016386521</v>
+      </c>
+      <c r="H77">
+        <v>-0.06761112716347452</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05277606999394133</v>
+        <v>-0.03596506515693117</v>
       </c>
       <c r="C78">
-        <v>0.01919683112122891</v>
+        <v>0.01392625524860924</v>
       </c>
       <c r="D78">
-        <v>-0.03450615892268253</v>
+        <v>-0.0581200412036288</v>
       </c>
       <c r="E78">
-        <v>0.1072540789509307</v>
+        <v>-0.005630121356345029</v>
       </c>
       <c r="F78">
-        <v>0.02889455301986117</v>
+        <v>0.05248934163125007</v>
       </c>
       <c r="G78">
-        <v>0.05990771455261396</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.05400783983287854</v>
+      </c>
+      <c r="H78">
+        <v>0.0263488417913917</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2156162070905346</v>
+        <v>-0.1771111125124233</v>
       </c>
       <c r="C80">
-        <v>-0.1366157271338144</v>
+        <v>0.07491345750166152</v>
       </c>
       <c r="D80">
-        <v>0.9266693022032484</v>
+        <v>0.01805452979941822</v>
       </c>
       <c r="E80">
-        <v>0.2355083560252716</v>
+        <v>-0.9585476312551193</v>
       </c>
       <c r="F80">
-        <v>0.03300058773777094</v>
+        <v>-0.1356145317879432</v>
       </c>
       <c r="G80">
-        <v>-0.03446647756213992</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.0937383938554638</v>
+      </c>
+      <c r="H80">
+        <v>0.009298332344815963</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1564605698341383</v>
+        <v>-0.1481391646526412</v>
       </c>
       <c r="C81">
-        <v>0.09864032436596436</v>
+        <v>0.08293147053384248</v>
       </c>
       <c r="D81">
-        <v>-0.01974267354714276</v>
+        <v>-0.07339122289612288</v>
       </c>
       <c r="E81">
-        <v>0.04588950977879055</v>
+        <v>-0.001272191701120707</v>
       </c>
       <c r="F81">
-        <v>-0.1767594972358326</v>
+        <v>0.1011297678883723</v>
       </c>
       <c r="G81">
-        <v>0.0181852407303178</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1046678066850112</v>
+      </c>
+      <c r="H81">
+        <v>-0.06649601232336734</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05277373871393525</v>
+        <v>-0.03840653657866237</v>
       </c>
       <c r="C83">
-        <v>-0.009665910979531364</v>
+        <v>0.01122264407419924</v>
       </c>
       <c r="D83">
-        <v>-0.03906286209848682</v>
+        <v>-0.02154059322738294</v>
       </c>
       <c r="E83">
-        <v>0.03806570150403724</v>
+        <v>0.01238437236198748</v>
       </c>
       <c r="F83">
-        <v>0.05763750972597239</v>
+        <v>0.01197143096741947</v>
       </c>
       <c r="G83">
-        <v>0.04990800091329674</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05840052184475011</v>
+      </c>
+      <c r="H83">
+        <v>0.01353040787850992</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2313280077584788</v>
+        <v>-0.2095643505560193</v>
       </c>
       <c r="C85">
-        <v>0.1175527944312871</v>
+        <v>0.1059800779074732</v>
       </c>
       <c r="D85">
-        <v>-0.04168338131836989</v>
+        <v>-0.1268867906439848</v>
       </c>
       <c r="E85">
-        <v>0.04126747307609843</v>
+        <v>0.01244903809945564</v>
       </c>
       <c r="F85">
-        <v>-0.1954555326897713</v>
+        <v>0.1384001069568092</v>
       </c>
       <c r="G85">
-        <v>0.07662453091918388</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1684428575345811</v>
+      </c>
+      <c r="H85">
+        <v>-0.06133728827912738</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.002908519174433351</v>
+        <v>-0.01399980430969514</v>
       </c>
       <c r="C86">
-        <v>-0.01122383446888338</v>
+        <v>-0.0009906750543113674</v>
       </c>
       <c r="D86">
-        <v>-0.001789959454113597</v>
+        <v>-0.005973307693627131</v>
       </c>
       <c r="E86">
-        <v>0.04897381713727014</v>
+        <v>0.009111548812649854</v>
       </c>
       <c r="F86">
-        <v>0.07229703491355736</v>
+        <v>-0.00335914424532087</v>
       </c>
       <c r="G86">
-        <v>0.02390503264382016</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.086605315587595</v>
+      </c>
+      <c r="H86">
+        <v>0.03604937194918469</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03088906472295623</v>
+        <v>-0.02749893649430779</v>
       </c>
       <c r="C87">
-        <v>0.007730083058759004</v>
+        <v>0.005447903002687741</v>
       </c>
       <c r="D87">
-        <v>-0.01515998492959072</v>
+        <v>-0.02709618894938384</v>
       </c>
       <c r="E87">
-        <v>0.03882642390235596</v>
+        <v>-0.0001505430563085966</v>
       </c>
       <c r="F87">
-        <v>0.07547825100180297</v>
+        <v>0.02516480925762498</v>
       </c>
       <c r="G87">
-        <v>0.0007429361416366326</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.09428436966770165</v>
+      </c>
+      <c r="H87">
+        <v>0.02557971940426682</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.008261792688123307</v>
+        <v>-0.03805253825314582</v>
       </c>
       <c r="C88">
-        <v>0.01333521671763762</v>
+        <v>-0.00687483109048847</v>
       </c>
       <c r="D88">
-        <v>0.02398732245061164</v>
+        <v>0.004357282112324305</v>
       </c>
       <c r="E88">
-        <v>-0.005949258880252994</v>
+        <v>-0.007686254520069819</v>
       </c>
       <c r="F88">
-        <v>0.03482727228335637</v>
+        <v>0.01211744351723408</v>
       </c>
       <c r="G88">
-        <v>0.06694348761902591</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.001690583412232544</v>
+      </c>
+      <c r="H88">
+        <v>0.008902408692532606</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1245048952549251</v>
+        <v>-0.2192140880137886</v>
       </c>
       <c r="C89">
-        <v>0.08370748333129992</v>
+        <v>0.06116384226946912</v>
       </c>
       <c r="D89">
-        <v>0.0238468795820566</v>
+        <v>0.3251333412608063</v>
       </c>
       <c r="E89">
-        <v>-0.2850902808467758</v>
+        <v>0.08983588142363919</v>
       </c>
       <c r="F89">
-        <v>0.1608243584851771</v>
+        <v>-0.1460315851672442</v>
       </c>
       <c r="G89">
-        <v>-0.0188095470157491</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.003022437086359953</v>
+      </c>
+      <c r="H89">
+        <v>-0.03305776666126603</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1107268329083844</v>
+        <v>-0.1745516568950405</v>
       </c>
       <c r="C90">
-        <v>0.08035343657532219</v>
+        <v>0.04923142784799821</v>
       </c>
       <c r="D90">
-        <v>0.07012297131269785</v>
+        <v>0.2852024340647838</v>
       </c>
       <c r="E90">
-        <v>-0.2787807093771923</v>
+        <v>0.06182180788718258</v>
       </c>
       <c r="F90">
-        <v>0.1157186721631245</v>
+        <v>-0.1442392191063362</v>
       </c>
       <c r="G90">
-        <v>-0.03958860128895603</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.03291969920577035</v>
+      </c>
+      <c r="H90">
+        <v>-0.04740461002551053</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2889802399361825</v>
+        <v>-0.2263021930876974</v>
       </c>
       <c r="C91">
-        <v>0.1068887087207007</v>
+        <v>0.1258165040382382</v>
       </c>
       <c r="D91">
-        <v>-0.05749628603506939</v>
+        <v>-0.1221686188289618</v>
       </c>
       <c r="E91">
-        <v>0.02819719262688533</v>
+        <v>0.01235434046031316</v>
       </c>
       <c r="F91">
-        <v>-0.2609309562285221</v>
+        <v>0.140922316417291</v>
       </c>
       <c r="G91">
-        <v>0.03035036296411858</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.2094290276517093</v>
+      </c>
+      <c r="H91">
+        <v>-0.1202489990121609</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1892623624220174</v>
+        <v>-0.2277124983740504</v>
       </c>
       <c r="C92">
-        <v>0.08478461168911108</v>
+        <v>0.1191912896137807</v>
       </c>
       <c r="D92">
-        <v>0.1057370493300625</v>
+        <v>0.2308370080547223</v>
       </c>
       <c r="E92">
-        <v>-0.4714731398064128</v>
+        <v>0.04479936244986587</v>
       </c>
       <c r="F92">
-        <v>0.07376608696272491</v>
+        <v>-0.115275056472916</v>
       </c>
       <c r="G92">
-        <v>0.5130842090812067</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.04230877098171517</v>
+      </c>
+      <c r="H92">
+        <v>-0.1364598127618442</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1208101348781155</v>
+        <v>-0.1988764540929595</v>
       </c>
       <c r="C93">
-        <v>0.05883166839000495</v>
+        <v>0.06294668841736724</v>
       </c>
       <c r="D93">
-        <v>0.08537139342306094</v>
+        <v>0.3018709470455014</v>
       </c>
       <c r="E93">
-        <v>-0.3898540125755542</v>
+        <v>0.07800150687727654</v>
       </c>
       <c r="F93">
-        <v>0.08944422152877078</v>
+        <v>-0.1801956978812962</v>
       </c>
       <c r="G93">
-        <v>-0.1045628018077213</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04319297520644316</v>
+      </c>
+      <c r="H93">
+        <v>0.01340744973042951</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2658999587482183</v>
+        <v>-0.2507882267746077</v>
       </c>
       <c r="C94">
-        <v>0.1477343415552602</v>
+        <v>0.1185925770639041</v>
       </c>
       <c r="D94">
-        <v>-0.02584318663892876</v>
+        <v>-0.104395400992832</v>
       </c>
       <c r="E94">
-        <v>0.01959044967155012</v>
+        <v>0.03364780697342989</v>
       </c>
       <c r="F94">
-        <v>-0.3018569362337445</v>
+        <v>0.1652879921498768</v>
       </c>
       <c r="G94">
-        <v>-0.02991269884736704</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2133193696336211</v>
+      </c>
+      <c r="H94">
+        <v>-0.1339536838282311</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07924224686433731</v>
+        <v>-0.06470678467289509</v>
       </c>
       <c r="C95">
-        <v>0.01136918128092311</v>
+        <v>0.03924013737061474</v>
       </c>
       <c r="D95">
-        <v>-0.06385123581113807</v>
+        <v>-0.08187664159641042</v>
       </c>
       <c r="E95">
-        <v>0.07104020122823958</v>
+        <v>0.06855990010800643</v>
       </c>
       <c r="F95">
-        <v>0.02923001404449688</v>
+        <v>0.02730160924760407</v>
       </c>
       <c r="G95">
-        <v>0.239115230489421</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.05984452908268904</v>
+      </c>
+      <c r="H95">
+        <v>-0.001967149419535278</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1881745470382072</v>
+        <v>-0.1739143128098527</v>
       </c>
       <c r="C98">
-        <v>0.04594006702183446</v>
+        <v>0.08730769903501356</v>
       </c>
       <c r="D98">
-        <v>-0.05311180491418926</v>
+        <v>-0.03608568193835171</v>
       </c>
       <c r="E98">
-        <v>-0.03072467402193341</v>
+        <v>0.05572812371721619</v>
       </c>
       <c r="F98">
-        <v>0.09238478762686918</v>
+        <v>0.0339293112599886</v>
       </c>
       <c r="G98">
-        <v>-0.3179532855076238</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1596252980635244</v>
+      </c>
+      <c r="H98">
+        <v>0.3659935027873072</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002892141782159436</v>
+        <v>-0.01350383414106614</v>
       </c>
       <c r="C101">
-        <v>0.02510095377573816</v>
+        <v>0.0009730760354373413</v>
       </c>
       <c r="D101">
-        <v>-0.009882787431556413</v>
+        <v>-0.005002281468472464</v>
       </c>
       <c r="E101">
-        <v>0.1328928257439375</v>
+        <v>-0.006537897905135652</v>
       </c>
       <c r="F101">
-        <v>0.1327403699388456</v>
+        <v>0.03316233890269651</v>
       </c>
       <c r="G101">
-        <v>0.1218168588695031</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.09924598605598642</v>
+      </c>
+      <c r="H101">
+        <v>-0.07408349199588805</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09503554403131483</v>
+        <v>-0.1042133900853506</v>
       </c>
       <c r="C102">
-        <v>0.03390530925184728</v>
+        <v>0.04483344825184002</v>
       </c>
       <c r="D102">
-        <v>-0.01165199095897114</v>
+        <v>-0.06500866296633272</v>
       </c>
       <c r="E102">
-        <v>0.05717035956836786</v>
+        <v>-0.001551026806166697</v>
       </c>
       <c r="F102">
-        <v>-0.1390921855893347</v>
+        <v>0.07069811504685077</v>
       </c>
       <c r="G102">
-        <v>0.07080417200447248</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.09500881118907513</v>
+      </c>
+      <c r="H102">
+        <v>-0.0545874858128237</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02432161434899335</v>
+        <v>-0.02068643372064574</v>
       </c>
       <c r="C103">
-        <v>0.0120713613549746</v>
+        <v>0.01008942974643755</v>
       </c>
       <c r="D103">
-        <v>-0.0121209671397338</v>
+        <v>-0.01304368097888707</v>
       </c>
       <c r="E103">
-        <v>0.003078929858029046</v>
+        <v>-0.005962467793248249</v>
       </c>
       <c r="F103">
-        <v>-0.01549409621728627</v>
+        <v>0.01802706076139675</v>
       </c>
       <c r="G103">
-        <v>0.02192030270606069</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.006558621540298872</v>
+      </c>
+      <c r="H103">
+        <v>-0.01021060179504382</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.3644808319924365</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9103192105063254</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.04790485220351796</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02813412214882998</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1553790009623281</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.03962273596652593</v>
+      </c>
+      <c r="H104">
+        <v>-0.03007023393100906</v>
       </c>
     </row>
   </sheetData>
